--- a/Minimarket_GUI/Plantillas/Plantilla_Movimiento.xlsx
+++ b/Minimarket_GUI/Plantillas/Plantilla_Movimiento.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JORDAN\source\repos\leslyxdxd\Minimarket\Minimarket_GUI\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desarrollo de aplicacionesII- V2024\Minimarket\Minimarket_GUI\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2984543B-F8A5-4B1E-852F-47686C54E856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A498BAFD-9628-494D-BC1E-1BBAE204715F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Producto</t>
   </si>
@@ -44,12 +43,15 @@
   <si>
     <t>REPORTE DE MOVIMIENTOS</t>
   </si>
+  <si>
+    <t>FECHA:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +82,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -224,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -239,6 +249,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,10 +260,10 @@
   <dxfs count="9">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -265,7 +279,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -314,9 +330,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -374,7 +388,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -408,14 +421,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A8A0183F-11C7-40F5-A2F4-8286E2D2642A}" name="Tabla3" displayName="Tabla3" ref="B3:F16" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B3:F16" xr:uid="{A8A0183F-11C7-40F5-A2F4-8286E2D2642A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B6:F19" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B6:F19"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F528720A-81BB-4DFC-8FBD-BEBFEB9EE379}" name="Producto" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{CF6CBBC2-BF4E-43B0-85E4-03317876ACD2}" name="Cantidad Transferida" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{8F37131D-D81C-438C-838D-A403D956456B}" name="Unidad de Medida" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8DCC58F2-B269-4339-A674-AB798318BA82}" name="Fecha Transferida" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{9B43B5AF-AE02-420E-BA0B-20B5762DADCE}" name="Usuario del Registro" dataDxfId="1"/>
+    <tableColumn id="1" name="Producto" dataDxfId="4"/>
+    <tableColumn id="2" name="Cantidad Transferida" dataDxfId="3"/>
+    <tableColumn id="3" name="Unidad de Medida" dataDxfId="2"/>
+    <tableColumn id="4" name="Fecha Transferida" dataDxfId="1"/>
+    <tableColumn id="5" name="Usuario del Registro" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -717,11 +730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC64C3A5-9745-4C7B-A859-53494AC6130F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,43 +755,28 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -830,27 +828,46 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="10"/>
     </row>
   </sheetData>

--- a/Minimarket_GUI/Plantillas/Plantilla_Movimiento.xlsx
+++ b/Minimarket_GUI/Plantillas/Plantilla_Movimiento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desarrollo de aplicacionesII- V2024\Minimarket\Minimarket_GUI\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Producto</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>FECHA:</t>
+  </si>
+  <si>
+    <t>PERIODO DE TIEMPO:</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -246,13 +249,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,7 +740,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,19 +753,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="14"/>
     </row>
     <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
